--- a/data/0. old data/0. raw/2016/companies/abbvie.xlsx
+++ b/data/0. old data/0. raw/2016/companies/abbvie.xlsx
@@ -2434,9 +2434,6 @@
     <t>Oberdorf</t>
   </si>
   <si>
-    <t>Klinik für Gastroenterologie und Hepatologie</t>
-  </si>
-  <si>
     <t>Klinik Im Park AG</t>
   </si>
   <si>
@@ -2882,6 +2879,9 @@
   </si>
   <si>
     <t>abbvie</t>
+  </si>
+  <si>
+    <t>UniversitätsSpital Zürich - Klinik für Gastroenterologie und Hepatologie</t>
   </si>
 </sst>
 </file>
@@ -3731,9 +3731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V242" sqref="V242"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -15805,7 +15805,7 @@
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="3" t="s">
-        <v>804</v>
+        <v>953</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>28</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>28</v>
@@ -15845,7 +15845,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E396" s="3"/>
       <c r="F396" s="6"/>
@@ -15865,7 +15865,7 @@
     </row>
     <row r="397" spans="1:13">
       <c r="A397" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>177</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="398" spans="1:13">
       <c r="A398" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>159</v>
@@ -15933,16 +15933,16 @@
     </row>
     <row r="399" spans="1:13">
       <c r="A399" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="C399" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D399" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>811</v>
       </c>
       <c r="E399" s="3"/>
       <c r="F399" s="6"/>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>52</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="401" spans="1:13">
       <c r="A401" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>102</v>
@@ -16020,16 +16020,16 @@
     </row>
     <row r="402" spans="1:13">
       <c r="A402" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B402" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="C402" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D402" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>816</v>
       </c>
       <c r="E402" s="3"/>
       <c r="F402" s="6"/>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="403" spans="1:13">
       <c r="A403" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>28</v>
@@ -16078,7 +16078,7 @@
     </row>
     <row r="404" spans="1:13">
       <c r="A404" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>159</v>
@@ -16087,7 +16087,7 @@
         <v>15</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E404" s="3"/>
       <c r="F404" s="6"/>
@@ -16107,16 +16107,16 @@
     </row>
     <row r="405" spans="1:13">
       <c r="A405" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="C405" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>822</v>
       </c>
       <c r="E405" s="3"/>
       <c r="F405" s="6"/>
@@ -16136,16 +16136,16 @@
     </row>
     <row r="406" spans="1:13">
       <c r="A406" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B406" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="C406" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D406" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>825</v>
       </c>
       <c r="E406" s="3"/>
       <c r="F406" s="6"/>
@@ -16165,10 +16165,10 @@
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B407" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>827</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>15</v>
@@ -16194,16 +16194,16 @@
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="C408" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>830</v>
       </c>
       <c r="E408" s="3"/>
       <c r="F408" s="6"/>
@@ -16223,16 +16223,16 @@
     </row>
     <row r="409" spans="1:13">
       <c r="A409" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="C409" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D409" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="E409" s="3"/>
       <c r="F409" s="6">
@@ -16252,7 +16252,7 @@
     </row>
     <row r="410" spans="1:13">
       <c r="A410" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>49</v>
@@ -16261,7 +16261,7 @@
         <v>15</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E410" s="3"/>
       <c r="F410" s="6"/>
@@ -16281,7 +16281,7 @@
     </row>
     <row r="411" spans="1:13">
       <c r="A411" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>122</v>
@@ -16290,7 +16290,7 @@
         <v>15</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E411" s="3"/>
       <c r="F411" s="6"/>
@@ -16312,16 +16312,16 @@
     </row>
     <row r="412" spans="1:13">
       <c r="A412" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B412" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="C412" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D412" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>840</v>
       </c>
       <c r="E412" s="3"/>
       <c r="F412" s="6"/>
@@ -16341,16 +16341,16 @@
     </row>
     <row r="413" spans="1:13">
       <c r="A413" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="C413" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D413" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>843</v>
       </c>
       <c r="E413" s="3"/>
       <c r="F413" s="6"/>
@@ -16372,7 +16372,7 @@
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>38</v>
@@ -16381,7 +16381,7 @@
         <v>15</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E414" s="3"/>
       <c r="F414" s="6"/>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>89</v>
@@ -16410,7 +16410,7 @@
         <v>15</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E415" s="3"/>
       <c r="F415" s="6">
@@ -16430,16 +16430,16 @@
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B416" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="C416" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D416" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>850</v>
       </c>
       <c r="E416" s="3"/>
       <c r="F416" s="6"/>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>60</v>
@@ -16468,7 +16468,7 @@
         <v>15</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E417" s="3"/>
       <c r="F417" s="6"/>
@@ -16488,7 +16488,7 @@
     </row>
     <row r="418" spans="1:13">
       <c r="A418" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>96</v>
@@ -16497,7 +16497,7 @@
         <v>15</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E418" s="3"/>
       <c r="F418" s="6">
@@ -16517,7 +16517,7 @@
     </row>
     <row r="419" spans="1:13">
       <c r="A419" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>96</v>
@@ -16526,7 +16526,7 @@
         <v>15</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E419" s="3"/>
       <c r="F419" s="6"/>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="420" spans="1:13">
       <c r="A420" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>60</v>
@@ -16555,7 +16555,7 @@
         <v>15</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E420" s="3"/>
       <c r="F420" s="6"/>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="421" spans="1:13">
       <c r="A421" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>122</v>
@@ -16584,7 +16584,7 @@
         <v>15</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E421" s="3"/>
       <c r="F421" s="6"/>
@@ -16604,7 +16604,7 @@
     </row>
     <row r="422" spans="1:13">
       <c r="A422" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>28</v>
@@ -16613,7 +16613,7 @@
         <v>15</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E422" s="3"/>
       <c r="F422" s="6"/>
@@ -16633,7 +16633,7 @@
     </row>
     <row r="423" spans="1:13">
       <c r="A423" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>199</v>
@@ -16642,7 +16642,7 @@
         <v>15</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E423" s="3"/>
       <c r="F423" s="6"/>
@@ -16662,7 +16662,7 @@
     </row>
     <row r="424" spans="1:13">
       <c r="A424" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>60</v>
@@ -16691,7 +16691,7 @@
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>60</v>
@@ -16700,7 +16700,7 @@
         <v>15</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E425" s="3"/>
       <c r="F425" s="6"/>
@@ -16720,7 +16720,7 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>547</v>
@@ -16729,7 +16729,7 @@
         <v>15</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E426" s="3"/>
       <c r="F426" s="6"/>
@@ -16749,7 +16749,7 @@
     </row>
     <row r="427" spans="1:13">
       <c r="A427" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>28</v>
@@ -16758,7 +16758,7 @@
         <v>15</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E427" s="3"/>
       <c r="F427" s="6"/>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>60</v>
@@ -16787,7 +16787,7 @@
         <v>15</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E428" s="3"/>
       <c r="F428" s="6"/>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>60</v>
@@ -16816,7 +16816,7 @@
         <v>15</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E429" s="3"/>
       <c r="F429" s="6">
@@ -16838,7 +16838,7 @@
     </row>
     <row r="430" spans="1:13">
       <c r="A430" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>205</v>
@@ -16847,7 +16847,7 @@
         <v>15</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E430" s="3"/>
       <c r="F430" s="6"/>
@@ -16867,16 +16867,16 @@
     </row>
     <row r="431" spans="1:13">
       <c r="A431" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B431" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="C431" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D431" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>880</v>
       </c>
       <c r="E431" s="3"/>
       <c r="F431" s="6"/>
@@ -16896,16 +16896,16 @@
     </row>
     <row r="432" spans="1:13">
       <c r="A432" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B432" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="C432" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D432" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="E432" s="3"/>
       <c r="F432" s="6"/>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="433" spans="1:13">
       <c r="A433" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>96</v>
@@ -16934,7 +16934,7 @@
         <v>15</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E433" s="3"/>
       <c r="F433" s="6"/>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="434" spans="1:13">
       <c r="A434" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>38</v>
@@ -16963,7 +16963,7 @@
         <v>15</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E434" s="3"/>
       <c r="F434" s="6"/>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="435" spans="1:13">
       <c r="A435" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>65</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="436" spans="1:13">
       <c r="A436" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>60</v>
@@ -17043,16 +17043,16 @@
     </row>
     <row r="437" spans="1:13">
       <c r="A437" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>891</v>
       </c>
       <c r="E437" s="3"/>
       <c r="F437" s="6"/>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>591</v>
@@ -17101,16 +17101,16 @@
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B439" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="C439" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D439" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>895</v>
       </c>
       <c r="E439" s="3"/>
       <c r="F439" s="6"/>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>258</v>
@@ -17139,7 +17139,7 @@
         <v>15</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E440" s="3"/>
       <c r="F440" s="6"/>
@@ -17159,10 +17159,10 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B441" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>15</v>
@@ -17188,16 +17188,16 @@
     </row>
     <row r="442" spans="1:13">
       <c r="A442" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="C442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D442" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="E442" s="3"/>
       <c r="F442" s="6"/>
@@ -17217,7 +17217,7 @@
     </row>
     <row r="443" spans="1:13">
       <c r="A443" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>213</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="444" spans="1:13">
       <c r="A444" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>60</v>
@@ -17255,7 +17255,7 @@
         <v>15</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E444" s="3"/>
       <c r="F444" s="6"/>
@@ -17275,7 +17275,7 @@
     </row>
     <row r="445" spans="1:13">
       <c r="A445" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>22</v>
@@ -17284,7 +17284,7 @@
         <v>15</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E445" s="3"/>
       <c r="F445" s="6"/>
@@ -17304,7 +17304,7 @@
     </row>
     <row r="446" spans="1:13">
       <c r="A446" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>96</v>
@@ -17337,7 +17337,7 @@
     </row>
     <row r="447" spans="1:13">
       <c r="A447" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>28</v>
@@ -17368,7 +17368,7 @@
     </row>
     <row r="448" spans="1:13">
       <c r="A448" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>52</v>
@@ -17377,7 +17377,7 @@
         <v>15</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E448" s="3"/>
       <c r="F448" s="6"/>
@@ -17397,7 +17397,7 @@
     </row>
     <row r="449" spans="1:13">
       <c r="A449" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>28</v>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>60</v>
@@ -17435,7 +17435,7 @@
         <v>15</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E450" s="3"/>
       <c r="F450" s="6"/>
@@ -17455,7 +17455,7 @@
     </row>
     <row r="451" spans="1:13">
       <c r="A451" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>60</v>
@@ -17464,7 +17464,7 @@
         <v>15</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E451" s="3"/>
       <c r="F451" s="6"/>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="452" spans="1:13">
       <c r="A452" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>28</v>
@@ -17521,7 +17521,7 @@
     </row>
     <row r="453" spans="1:13">
       <c r="A453" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>38</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="454" spans="1:13">
       <c r="A454" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>28</v>
@@ -17559,7 +17559,7 @@
         <v>15</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E454" s="3"/>
       <c r="F454" s="6"/>
@@ -17579,7 +17579,7 @@
     </row>
     <row r="455" spans="1:13">
       <c r="A455" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>28</v>
@@ -17588,7 +17588,7 @@
         <v>15</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E455" s="3"/>
       <c r="F455" s="6"/>
@@ -17610,7 +17610,7 @@
     </row>
     <row r="456" spans="1:13">
       <c r="A456" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>96</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="457" spans="1:13">
       <c r="A457" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>28</v>
@@ -17648,7 +17648,7 @@
         <v>15</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E457" s="3"/>
       <c r="F457" s="6">
@@ -17668,7 +17668,7 @@
     </row>
     <row r="458" spans="1:13">
       <c r="A458" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>122</v>
@@ -17697,16 +17697,16 @@
     </row>
     <row r="459" spans="1:13">
       <c r="A459" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B459" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="C459" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D459" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>927</v>
       </c>
       <c r="E459" s="3"/>
       <c r="F459" s="6"/>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="460" spans="1:13">
       <c r="A460" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>96</v>
@@ -17735,7 +17735,7 @@
         <v>15</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E460" s="3"/>
       <c r="F460" s="6">
@@ -17755,7 +17755,7 @@
     </row>
     <row r="461" spans="1:13">
       <c r="A461" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>96</v>
@@ -17764,7 +17764,7 @@
         <v>15</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E461" s="3"/>
       <c r="F461" s="6"/>
@@ -17784,7 +17784,7 @@
     </row>
     <row r="462" spans="1:13">
       <c r="A462" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>60</v>
@@ -17793,7 +17793,7 @@
         <v>15</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E462" s="3"/>
       <c r="F462" s="6"/>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="463" spans="1:13">
       <c r="A463" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>28</v>
@@ -17822,7 +17822,7 @@
         <v>15</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E463" s="3"/>
       <c r="F463" s="6">
@@ -17848,7 +17848,7 @@
     </row>
     <row r="464" spans="1:13">
       <c r="A464" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>96</v>
@@ -17857,7 +17857,7 @@
         <v>15</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E464" s="3"/>
       <c r="F464" s="6">
@@ -17881,7 +17881,7 @@
     </row>
     <row r="465" spans="1:13">
       <c r="A465" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>28</v>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="466" spans="1:13">
       <c r="A466" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>38</v>
@@ -17929,7 +17929,7 @@
         <v>15</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E466" s="3"/>
       <c r="F466" s="6"/>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="467" spans="1:13">
       <c r="A467" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>60</v>
@@ -17958,7 +17958,7 @@
         <v>15</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E467" s="3"/>
       <c r="F467" s="6"/>
@@ -17978,7 +17978,7 @@
     </row>
     <row r="468" spans="1:13">
       <c r="A468" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>28</v>
@@ -17987,7 +17987,7 @@
         <v>15</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E468" s="3"/>
       <c r="F468" s="6"/>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="469" spans="1:13">
       <c r="A469" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>28</v>
@@ -18016,7 +18016,7 @@
         <v>15</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E469" s="3"/>
       <c r="F469" s="6"/>
@@ -18060,30 +18060,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>948</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B2" s="3">
         <v>2016</v>
@@ -18106,7 +18106,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B3" s="3">
         <v>2016</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B4" s="3">
         <v>2016</v>
@@ -18152,7 +18152,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B5" s="3">
         <v>2016</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B6" s="3">
         <v>2016</v>
@@ -18198,7 +18198,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B7" s="3">
         <v>2016</v>
